--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sukde\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B799A2CE-ABC6-4A29-A4A6-910EBBA51102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439C2D9-96B6-48BE-816B-4E6A52C9139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>ANJ</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
@@ -93,8 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,13 +416,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
-  <dimension ref="A6:H6"/>
+  <dimension ref="A6:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -441,6 +452,20 @@
       </c>
       <c r="H6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F439C2D9-96B6-48BE-816B-4E6A52C9139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB96FD4-DD53-4A33-9A13-3C0A2EF3FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>Thuesday</t>
+  </si>
+  <si>
+    <t>holidays</t>
   </si>
 </sst>
 </file>
@@ -99,9 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
-  <dimension ref="A6:H7"/>
+  <dimension ref="A6:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,7 +477,26 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB96FD4-DD53-4A33-9A13-3C0A2EF3FE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25E48F-A432-4151-949C-A20615DE94C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>holidays</t>
+  </si>
+  <si>
+    <t>Friday</t>
   </si>
 </sst>
 </file>
@@ -93,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -101,14 +104,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -425,77 +449,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
-  <dimension ref="A6:H8"/>
+  <dimension ref="B5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
         <v>45679</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
         <v>45680</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>45681</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="2">
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA25E48F-A432-4151-949C-A20615DE94C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1765F3F-C671-48DC-B4CF-42961B95432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
   </si>
 </sst>
 </file>
@@ -96,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,11 +122,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -133,6 +173,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,63 +557,69 @@
       <c r="B7" s="3">
         <v>45679</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>45680</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>45681</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="5">
+        <v>45682</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -926,9 +982,10 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1765F3F-C671-48DC-B4CF-42961B95432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1E881-0C7F-4AAA-A313-40939E798BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -76,16 +76,25 @@
   </si>
   <si>
     <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -163,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -175,7 +184,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +510,7 @@
   <dimension ref="B5:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:I10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,33 +614,39 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>45682</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="3">
+        <v>45683</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -652,8 +666,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -982,11 +996,13 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E1E881-0C7F-4AAA-A313-40939E798BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820449D1-BF73-4639-BAD8-D92D1589819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>no class</t>
+  </si>
+  <si>
+    <t>2 class p</t>
+  </si>
+  <si>
+    <t>1 class p</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
   <dimension ref="B5:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,14 +658,30 @@
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="3">
+        <v>45684</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820449D1-BF73-4639-BAD8-D92D1589819B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2807884-11BD-4F64-861F-A13708B645D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>1 class p</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>practical 2 class p</t>
   </si>
 </sst>
 </file>
@@ -522,7 +528,7 @@
   <dimension ref="B5:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,14 +690,28 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="3">
+        <v>45685</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
@@ -1024,11 +1044,12 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D11:I11"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2807884-11BD-4F64-861F-A13708B645D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DA365-F1FD-4DAD-9DD8-41010936F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>practical 2 class p</t>
+  </si>
+  <si>
+    <t>science fair</t>
   </si>
 </sst>
 </file>
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,14 +717,20 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="3">
+        <v>45686</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
@@ -1044,7 +1053,8 @@
       <c r="I46" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="D14:I14"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="D10:I10"/>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9DA365-F1FD-4DAD-9DD8-41010936F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D134E3-7782-4B72-859F-E02CB2841B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Thuesday</t>
   </si>
   <si>
-    <t>holidays</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>science fair</t>
+  </si>
+  <si>
+    <t>Holidays</t>
   </si>
 </sst>
 </file>
@@ -202,9 +202,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +209,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DED1337-8154-4973-BBDE-4FEB229B27B2}">
   <dimension ref="B5:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,87 +609,87 @@
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>45681</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="D9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>45682</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>45683</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>45684</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -697,23 +697,23 @@
         <v>45685</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="6"/>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -723,14 +723,14 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D134E3-7782-4B72-859F-E02CB2841B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CE376-3D15-48B8-9283-457529940C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> p </t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="B5:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:I11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,14 +736,30 @@
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="3">
+        <v>45687</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>

--- a/attendance_sheetxlsx.xlsx
+++ b/attendance_sheetxlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\repositary\2nd_year_4th_semester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6CE376-3D15-48B8-9283-457529940C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FC255A-8AC1-489E-B6BF-30BDB835A483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB654061-A886-47D1-BF86-9B1A84FCE7FB}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>p</t>
   </si>
   <si>
-    <t>Thuesday</t>
-  </si>
-  <si>
     <t>Friday</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t xml:space="preserve"> p </t>
+  </si>
+  <si>
+    <t>Thursday</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="B5:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,10 +610,10 @@
         <v>45680</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -626,10 +626,10 @@
         <v>45681</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -642,10 +642,10 @@
         <v>45682</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -658,10 +658,10 @@
         <v>45683</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -674,25 +674,25 @@
         <v>45684</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -700,23 +700,23 @@
         <v>45685</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -740,25 +740,25 @@
         <v>45687</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
